--- a/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en País Vasco</t>
+          <t>Estado civil en País Vasco (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3513,7 +3513,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Andalucia</t>
+          <t>Estado civil en Andalucia (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6480,7 +6480,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en C.Valenciana</t>
+          <t>Estado civil en C.Valenciana (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9447,7 +9447,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Barcelona</t>
+          <t>Estado civil en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>5059</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8521</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50984</t>
+          <t>48372</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>46078</t>
+          <t>43948</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56130</t>
+          <t>52781</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>57020</t>
+          <t>53430</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>52114</t>
+          <t>48290</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>63049</t>
+          <t>58906</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4041</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>6215</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>9398</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17173</t>
+          <t>16872</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13881</t>
+          <t>13691</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>20307</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9285</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>7163</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12421</t>
+          <t>12061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>26458</t>
+          <t>26311</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>22221</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30907</t>
+          <t>30459</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>60289</t>
+          <t>56084</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56075</t>
+          <t>52309</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63954</t>
+          <t>59627</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62216</t>
+          <t>57478</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>57007</t>
+          <t>52745</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67509</t>
+          <t>61917</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>122505</t>
+          <t>113563</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>116431</t>
+          <t>107488</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>128741</t>
+          <t>120286</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>59,06%</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87949</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87949</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87949</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1336,17 +1336,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>127678</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>127678</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>127678</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>215627</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>215627</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>215627</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15531</t>
+          <t>14072</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12237</t>
+          <t>11182</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19761</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47902</t>
+          <t>51068</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42321</t>
+          <t>45607</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53631</t>
+          <t>57251</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>63433</t>
+          <t>65140</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>56832</t>
+          <t>58415</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>70596</t>
+          <t>72109</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14176</t>
+          <t>14487</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11294</t>
+          <t>11583</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17981</t>
+          <t>17953</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27587</t>
+          <t>28285</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23587</t>
+          <t>24415</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32868</t>
+          <t>33064</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>41764</t>
+          <t>42772</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>36646</t>
+          <t>37936</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>47986</t>
+          <t>48621</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -1644,102 +1644,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7237</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>9334</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10963</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8327</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14098</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17702</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>14558</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21712</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
           <t>1,6%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>11152</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8385</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>14251</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>18388</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>15079</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>23418</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>160458</t>
+          <t>171615</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>152691</t>
+          <t>162498</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>170612</t>
+          <t>180613</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>115636</t>
+          <t>123860</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>107836</t>
+          <t>116547</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>124270</t>
+          <t>132327</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,32 +1827,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>276094</t>
+          <t>295475</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>264267</t>
+          <t>283360</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>288449</t>
+          <t>308667</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
+          <t>32,48%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t>31,15%</t>
         </is>
       </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>29,81%</t>
-        </is>
-      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>255711</t>
+          <t>256477</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>245888</t>
+          <t>247179</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>264748</t>
+          <t>266202</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>231003</t>
+          <t>232182</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>221303</t>
+          <t>223271</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>239810</t>
+          <t>241654</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>486715</t>
+          <t>488658</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>473833</t>
+          <t>474752</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>499873</t>
+          <t>501396</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>55,11%</t>
         </is>
       </c>
     </row>
@@ -1983,17 +1983,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>453114</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>453114</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>453114</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2018,17 +2018,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>433280</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>433280</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>433280</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2053,17 +2053,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>886394</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>886394</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>886394</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7441</t>
+          <t>7968</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9957</t>
+          <t>10635</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10997</t>
+          <t>11289</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8198</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>14202</t>
+          <t>14568</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11364</t>
+          <t>13497</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8996</t>
+          <t>10591</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14637</t>
+          <t>17126</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,27 +2283,27 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>16599</t>
+          <t>19360</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>13513</t>
+          <t>16061</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>20441</t>
+          <t>23850</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>5745</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>8786</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -2439,32 +2439,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>58999</t>
+          <t>66067</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53655</t>
+          <t>60210</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64451</t>
+          <t>72588</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2474,32 +2474,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>67876</t>
+          <t>79768</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62259</t>
+          <t>72867</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73381</t>
+          <t>86660</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2509,32 +2509,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>126876</t>
+          <t>145835</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>118643</t>
+          <t>136209</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>135044</t>
+          <t>153830</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>82810</t>
+          <t>99028</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>77252</t>
+          <t>93270</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>87945</t>
+          <t>105365</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106236</t>
+          <t>124078</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>100497</t>
+          <t>117086</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111864</t>
+          <t>131572</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>189046</t>
+          <t>223107</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>180966</t>
+          <t>214280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>197184</t>
+          <t>232565</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>57,38%</t>
         </is>
       </c>
     </row>
@@ -2665,17 +2665,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2700,17 +2700,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>195277</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>195277</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>195277</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>347765</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>347765</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>347765</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25123</t>
+          <t>22452</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21083</t>
+          <t>18854</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30096</t>
+          <t>26711</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>106327</t>
+          <t>107407</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>97908</t>
+          <t>99496</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>114964</t>
+          <t>116190</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>131450</t>
+          <t>129859</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>121904</t>
+          <t>120813</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>141476</t>
+          <t>139397</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -2895,32 +2895,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21827</t>
+          <t>23024</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18166</t>
+          <t>19434</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26291</t>
+          <t>27690</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2930,32 +2930,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>42514</t>
+          <t>45773</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>37039</t>
+          <t>40586</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>48041</t>
+          <t>52407</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2965,32 +2965,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>64342</t>
+          <t>68798</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>58127</t>
+          <t>61925</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>71608</t>
+          <t>75967</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -3008,32 +3008,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>11160</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8486</t>
+          <t>7999</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>14486</t>
+          <t>13563</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3043,32 +3043,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15142</t>
+          <t>16702</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>11833</t>
+          <t>13299</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>18954</t>
+          <t>20567</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3078,22 +3078,22 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>26301</t>
+          <t>27154</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>22105</t>
+          <t>23087</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>30800</t>
+          <t>32399</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -3121,32 +3121,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>236630</t>
+          <t>254554</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>225572</t>
+          <t>242710</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>247534</t>
+          <t>265606</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3156,32 +3156,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>192796</t>
+          <t>213066</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>181792</t>
+          <t>201541</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>203564</t>
+          <t>224164</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3191,32 +3191,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>429427</t>
+          <t>467621</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>414814</t>
+          <t>452137</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>444750</t>
+          <t>483343</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>31,82%</t>
         </is>
       </c>
     </row>
@@ -3234,32 +3234,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>398810</t>
+          <t>411589</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>387372</t>
+          <t>399775</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>410117</t>
+          <t>423998</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>55,85%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3269,32 +3269,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>399455</t>
+          <t>413738</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>387679</t>
+          <t>400780</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>411843</t>
+          <t>426540</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3304,32 +3304,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>798265</t>
+          <t>825328</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>781882</t>
+          <t>808318</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>815754</t>
+          <t>842479</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>55,47%</t>
         </is>
       </c>
     </row>
@@ -3347,17 +3347,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>693550</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>693550</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>693550</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3382,17 +3382,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756234</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756234</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756234</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3417,17 +3417,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1449785</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1449785</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1449785</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24710</t>
+          <t>24531</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44279</t>
+          <t>44148</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>138348</t>
+          <t>137135</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>167908</t>
+          <t>168923</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3758,12 +3758,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>168427</t>
+          <t>167096</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>205776</t>
+          <t>204223</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11588</t>
+          <t>11112</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>11939</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41111</t>
+          <t>41497</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17049</t>
+          <t>17382</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43869</t>
+          <t>43938</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12690</t>
+          <t>13485</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9179</t>
+          <t>8803</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24443</t>
+          <t>23806</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3984,12 +3984,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>13639</t>
+          <t>13962</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>30594</t>
+          <t>32235</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4047,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36797</t>
+          <t>35313</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66229</t>
+          <t>63972</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4082,12 +4082,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21997</t>
+          <t>22131</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43137</t>
+          <t>41835</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63396</t>
+          <t>61731</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>97706</t>
+          <t>97163</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4132,12 +4132,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -4160,12 +4160,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>116329</t>
+          <t>115807</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>146458</t>
+          <t>145798</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>64,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>165333</t>
+          <t>164164</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>194366</t>
+          <t>197262</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>290131</t>
+          <t>289579</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>332182</t>
+          <t>332849</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>53,34%</t>
         </is>
       </c>
     </row>
@@ -4390,12 +4390,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17431</t>
+          <t>17624</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46229</t>
+          <t>46450</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4405,12 +4405,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4425,12 +4425,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>58071</t>
+          <t>53381</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>113635</t>
+          <t>110479</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4440,12 +4440,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4460,12 +4460,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>78305</t>
+          <t>83763</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>146594</t>
+          <t>150570</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31235</t>
+          <t>29915</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77113</t>
+          <t>76639</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4538,12 +4538,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49347</t>
+          <t>42576</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>101054</t>
+          <t>99896</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>93390</t>
+          <t>93497</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>163781</t>
+          <t>166891</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -4616,12 +4616,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22430</t>
+          <t>21350</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56155</t>
+          <t>56799</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4651,12 +4651,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31629</t>
+          <t>29863</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>68738</t>
+          <t>65894</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4686,12 +4686,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>63635</t>
+          <t>59092</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>114320</t>
+          <t>115174</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>278898</t>
+          <t>279126</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>629075</t>
+          <t>629788</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>264016</t>
+          <t>270646</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>559808</t>
+          <t>561041</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4799,12 +4799,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>660092</t>
+          <t>638941</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1129085</t>
+          <t>1119479</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>40,12%</t>
         </is>
       </c>
     </row>
@@ -4842,12 +4842,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>619357</t>
+          <t>620617</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1059162</t>
+          <t>1043591</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4857,12 +4857,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4877,12 +4877,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>597350</t>
+          <t>596577</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>986213</t>
+          <t>992432</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4912,12 +4912,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1273142</t>
+          <t>1266903</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1883995</t>
+          <t>1932727</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>69,27%</t>
         </is>
       </c>
     </row>
@@ -5072,12 +5072,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6623</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17925</t>
+          <t>17372</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5087,12 +5087,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17970</t>
+          <t>17790</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32173</t>
+          <t>31410</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5142,12 +5142,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>26746</t>
+          <t>26332</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>45287</t>
+          <t>44965</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -5185,12 +5185,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10083</t>
+          <t>10789</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25775</t>
+          <t>26115</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5200,12 +5200,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5220,12 +5220,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21382</t>
+          <t>21381</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38107</t>
+          <t>36433</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5255,12 +5255,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35092</t>
+          <t>35114</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>57066</t>
+          <t>56994</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -5298,12 +5298,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13583</t>
+          <t>13182</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>9817</t>
+          <t>9711</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>21844</t>
+          <t>21840</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
@@ -5368,12 +5368,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>15289</t>
+          <t>14603</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>29609</t>
+          <t>28979</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -5411,12 +5411,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>136346</t>
+          <t>138455</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>182278</t>
+          <t>183832</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>137113</t>
+          <t>137028</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>175490</t>
+          <t>174504</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>285640</t>
+          <t>284731</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>347824</t>
+          <t>342762</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,14%</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5524,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>242604</t>
+          <t>239368</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>286222</t>
+          <t>287380</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>199590</t>
+          <t>199888</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>238495</t>
+          <t>237270</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>454398</t>
+          <t>454185</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>514063</t>
+          <t>514296</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>57,23%</t>
         </is>
       </c>
     </row>
@@ -5754,12 +5754,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>52338</t>
+          <t>50910</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>98932</t>
+          <t>97479</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5769,12 +5769,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5789,12 +5789,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>188569</t>
+          <t>189873</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>304225</t>
+          <t>306602</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5824,12 +5824,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>271154</t>
+          <t>275209</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>389720</t>
+          <t>391279</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>53422</t>
+          <t>50025</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100634</t>
+          <t>98947</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5882,12 +5882,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>93718</t>
+          <t>91591</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>153338</t>
+          <t>151804</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>162512</t>
+          <t>163770</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>239535</t>
+          <t>240061</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35266</t>
+          <t>36024</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>71951</t>
+          <t>70567</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>58541</t>
+          <t>57791</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>100364</t>
+          <t>97992</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>101990</t>
+          <t>104483</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>160024</t>
+          <t>159490</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -6093,12 +6093,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>512491</t>
+          <t>472030</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>836874</t>
+          <t>829368</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6108,12 +6108,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>453559</t>
+          <t>452471</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>755151</t>
+          <t>748351</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1045091</t>
+          <t>1064537</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1504655</t>
+          <t>1500306</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>34,79%</t>
         </is>
       </c>
     </row>
@@ -6206,12 +6206,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1019258</t>
+          <t>1027469</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1434654</t>
+          <t>1487704</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6221,12 +6221,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1000709</t>
+          <t>1005163</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1441305</t>
+          <t>1432108</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2076497</t>
+          <t>2066879</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2720007</t>
+          <t>2697319</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>62,54%</t>
         </is>
       </c>
     </row>
@@ -9642,12 +9642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13216</t>
+          <t>13041</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9657,12 +9657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9677,12 +9677,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37539</t>
+          <t>37380</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56964</t>
+          <t>57004</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9692,12 +9692,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>43792</t>
+          <t>43159</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>66196</t>
+          <t>67995</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9727,12 +9727,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>31,05%</t>
         </is>
       </c>
     </row>
@@ -9755,12 +9755,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9790,12 +9790,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7926</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9825,12 +9825,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>8659</t>
+          <t>7997</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9840,12 +9840,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -9868,12 +9868,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>912</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13110</t>
+          <t>14259</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9883,12 +9883,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -9903,12 +9903,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>761</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11094</t>
+          <t>12604</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9918,12 +9918,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>16391</t>
+          <t>16279</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9953,12 +9953,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -9981,12 +9981,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21517</t>
+          <t>20945</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40985</t>
+          <t>41234</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10016,12 +10016,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17029</t>
+          <t>16539</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36122</t>
+          <t>34356</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10031,12 +10031,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>41328</t>
+          <t>42539</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>67935</t>
+          <t>68580</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10066,12 +10066,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -10094,12 +10094,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44268</t>
+          <t>44966</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65063</t>
+          <t>65793</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10109,82 +10109,82 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>66,76%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43120</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34202</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52837</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,8%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>98390</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>84809</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>114907</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
           <t>44,92%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>66,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>43120</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>34086</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>52971</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>35,8%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>43,97%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>98390</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>84722</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>113007</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>44,92%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>52,47%</t>
         </is>
       </c>
     </row>
@@ -10324,12 +10324,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8062</t>
+          <t>8084</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10359,12 +10359,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23565</t>
+          <t>23681</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38381</t>
+          <t>37411</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10374,12 +10374,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10394,12 +10394,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>28217</t>
+          <t>27554</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42687</t>
+          <t>42860</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10409,12 +10409,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11016</t>
+          <t>10714</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22836</t>
+          <t>20725</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10472,12 +10472,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23814</t>
+          <t>23504</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40021</t>
+          <t>39960</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10487,12 +10487,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10507,12 +10507,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>38404</t>
+          <t>37088</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>58062</t>
+          <t>56787</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10522,12 +10522,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -10550,12 +10550,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7958</t>
+          <t>7894</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10565,12 +10565,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7838</t>
+          <t>7568</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16903</t>
+          <t>16622</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -10620,12 +10620,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>11327</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>22211</t>
+          <t>21955</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10635,12 +10635,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -10663,12 +10663,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>164267</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>189380</t>
+          <t>190446</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10698,12 +10698,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>127806</t>
+          <t>126938</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>153750</t>
+          <t>153279</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10713,12 +10713,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10733,12 +10733,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>297439</t>
+          <t>298233</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>334965</t>
+          <t>334343</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10748,12 +10748,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>46,97%</t>
         </is>
       </c>
     </row>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143056</t>
+          <t>143453</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169087</t>
+          <t>168804</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>128691</t>
+          <t>130051</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>153887</t>
+          <t>155574</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10826,12 +10826,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>278437</t>
+          <t>279795</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>314728</t>
+          <t>316897</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10861,12 +10861,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>44,52%</t>
         </is>
       </c>
     </row>
@@ -11006,12 +11006,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>6256</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11021,12 +11021,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11041,12 +11041,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>6051</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13023</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11056,12 +11056,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8983</t>
+          <t>9078</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17336</t>
+          <t>17084</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11091,12 +11091,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -11119,12 +11119,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5669</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13855</t>
+          <t>13956</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11134,12 +11134,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11154,12 +11154,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14039</t>
+          <t>14088</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26234</t>
+          <t>26545</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11169,12 +11169,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11189,12 +11189,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>21775</t>
+          <t>21794</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>36768</t>
+          <t>36430</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -11232,12 +11232,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11247,12 +11247,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>11286</t>
+          <t>11459</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11282,12 +11282,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -11302,12 +11302,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>5391</t>
+          <t>5494</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11317,12 +11317,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -11345,12 +11345,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91963</t>
+          <t>91533</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>113009</t>
+          <t>112448</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>110751</t>
+          <t>110968</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>135023</t>
+          <t>134289</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11395,12 +11395,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11415,12 +11415,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>208931</t>
+          <t>208536</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>239808</t>
+          <t>240025</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11430,12 +11430,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>47,36%</t>
         </is>
       </c>
     </row>
@@ -11458,12 +11458,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97893</t>
+          <t>98520</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>118982</t>
+          <t>118815</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11473,12 +11473,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11493,12 +11493,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112270</t>
+          <t>113967</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>136361</t>
+          <t>136483</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11508,12 +11508,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>218224</t>
+          <t>216687</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>248233</t>
+          <t>247867</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11543,12 +11543,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>48,91%</t>
         </is>
       </c>
     </row>
@@ -11688,12 +11688,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11069</t>
+          <t>10539</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22565</t>
+          <t>22135</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11703,12 +11703,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11723,12 +11723,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>74614</t>
+          <t>73952</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>101512</t>
+          <t>100588</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11738,12 +11738,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11758,12 +11758,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88087</t>
+          <t>87931</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>118975</t>
+          <t>117776</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11773,12 +11773,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,19%</t>
         </is>
       </c>
     </row>
@@ -11801,12 +11801,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19278</t>
+          <t>18416</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>33162</t>
+          <t>32117</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11816,12 +11816,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11836,12 +11836,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>43362</t>
+          <t>41944</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>64738</t>
+          <t>64162</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11851,12 +11851,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11871,12 +11871,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>66311</t>
+          <t>67415</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>91505</t>
+          <t>91749</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11886,12 +11886,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -11914,12 +11914,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6122</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20643</t>
+          <t>19098</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -11929,12 +11929,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -11949,12 +11949,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>16069</t>
+          <t>15718</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>30815</t>
+          <t>29555</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11964,12 +11964,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -11984,12 +11984,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>24160</t>
+          <t>23803</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>42664</t>
+          <t>43235</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -11999,12 +11999,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -12027,12 +12027,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>291024</t>
+          <t>290455</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>329744</t>
+          <t>331228</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12042,12 +12042,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12062,12 +12062,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>267187</t>
+          <t>265917</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>304955</t>
+          <t>306310</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12077,12 +12077,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12097,12 +12097,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>569109</t>
+          <t>568187</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>624772</t>
+          <t>623966</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12112,12 +12112,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>43,4%</t>
         </is>
       </c>
     </row>
@@ -12140,12 +12140,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>298582</t>
+          <t>299875</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>338147</t>
+          <t>339557</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12155,12 +12155,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12175,12 +12175,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>292564</t>
+          <t>290831</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>330762</t>
+          <t>331535</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12190,12 +12190,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12210,12 +12210,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>600144</t>
+          <t>600060</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>656855</t>
+          <t>656259</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>45,65%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en País Vasco (tasa de respuesta: 99,7%)</t>
+          <t>Estado civil en Andalucia (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5059</t>
+          <t>36126</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>26057</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>47364</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>48372</t>
+          <t>165472</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43948</t>
+          <t>149538</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52781</t>
+          <t>182433</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>324</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>53430</t>
+          <t>201598</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>48290</t>
+          <t>180803</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>58906</t>
+          <t>220536</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>11327</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>17287</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>11523</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>24543</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>23248</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>17068</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9398</t>
+          <t>32255</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>7608</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>14959</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>15497</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>9758</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3594</t>
+          <t>25113</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>23105</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>15892</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>34372</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16872</t>
+          <t>51105</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13691</t>
+          <t>38676</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20307</t>
+          <t>66389</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>31909</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7163</t>
+          <t>23395</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>43628</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>26311</t>
+          <t>83014</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22221</t>
+          <t>66197</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30459</t>
+          <t>100417</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1183,107 +1183,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56084</t>
+          <t>152552</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52309</t>
+          <t>136414</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59627</t>
+          <t>167614</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>60,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>325</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>57478</t>
+          <t>203090</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>52745</t>
+          <t>187205</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61917</t>
+          <t>221098</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>502</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>113563</t>
+          <t>355642</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>107488</t>
+          <t>332993</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>120286</t>
+          <t>378392</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>55,11%</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82315</t>
+          <t>253353</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82315</t>
+          <t>253353</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82315</t>
+          <t>253353</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1331,22 +1331,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>121361</t>
+          <t>433254</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>121361</t>
+          <t>433254</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>121361</t>
+          <t>433254</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1366,22 +1366,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>984</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>203676</t>
+          <t>686607</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>203676</t>
+          <t>686607</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>203676</t>
+          <t>686607</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14072</t>
+          <t>35035</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11182</t>
+          <t>26379</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>47878</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51068</t>
+          <t>97603</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45607</t>
+          <t>83957</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57251</t>
+          <t>112314</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>209</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>65140</t>
+          <t>132638</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>58415</t>
+          <t>113676</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>72109</t>
+          <t>150918</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14487</t>
+          <t>63677</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11583</t>
+          <t>47780</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17953</t>
+          <t>78791</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28285</t>
+          <t>86087</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24415</t>
+          <t>73165</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33064</t>
+          <t>104078</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>193</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>42772</t>
+          <t>149765</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>37936</t>
+          <t>129697</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>48621</t>
+          <t>172459</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6739</t>
+          <t>45067</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>34122</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9334</t>
+          <t>61379</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10963</t>
+          <t>56810</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8327</t>
+          <t>45617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14098</t>
+          <t>69643</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>17702</t>
+          <t>101877</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>14558</t>
+          <t>84371</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21712</t>
+          <t>122511</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1752,107 +1752,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>171615</t>
+          <t>546887</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>162498</t>
+          <t>502817</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>180613</t>
+          <t>589064</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>378</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>123860</t>
+          <t>418543</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>116547</t>
+          <t>384596</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>132327</t>
+          <t>456029</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>718</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>295475</t>
+          <t>965431</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>283360</t>
+          <t>907491</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>308667</t>
+          <t>1019355</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>39,94%</t>
         </is>
       </c>
     </row>
@@ -1865,107 +1865,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>615</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>256477</t>
+          <t>595057</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>247179</t>
+          <t>556788</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>266202</t>
+          <t>639782</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>232182</t>
+          <t>607536</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>223271</t>
+          <t>573227</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>241654</t>
+          <t>642692</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>488658</t>
+          <t>1202592</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>474752</t>
+          <t>1151729</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>501396</t>
+          <t>1261813</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -1978,22 +1978,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>463389</t>
+          <t>1285723</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>463389</t>
+          <t>1285723</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>463389</t>
+          <t>1285723</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2013,22 +2013,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>446358</t>
+          <t>1266579</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>446358</t>
+          <t>1266579</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>446358</t>
+          <t>1266579</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2048,22 +2048,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5161</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>909746</t>
+          <t>2552302</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>909746</t>
+          <t>2552302</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>909746</t>
+          <t>2552302</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>11313</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2083</t>
+          <t>6945</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>18196</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7968</t>
+          <t>27582</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>21028</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10635</t>
+          <t>36722</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>11289</t>
+          <t>38895</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>29556</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>14568</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -2208,107 +2208,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>18394</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>11852</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>27778</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13497</t>
+          <t>32065</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10591</t>
+          <t>24032</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17126</t>
+          <t>40485</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>19360</t>
+          <t>50458</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>16061</t>
+          <t>39740</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>23850</t>
+          <t>63632</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -2321,107 +2321,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>17551</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2179</t>
+          <t>12093</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>25912</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>5745</t>
+          <t>25436</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>17257</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>8786</t>
+          <t>33808</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -2434,107 +2434,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>66067</t>
+          <t>177350</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60210</t>
+          <t>155227</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>72588</t>
+          <t>204540</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>79768</t>
+          <t>167647</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>72867</t>
+          <t>148110</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>86660</t>
+          <t>187847</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>305</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>145835</t>
+          <t>344997</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>136209</t>
+          <t>313605</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>153830</t>
+          <t>378465</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>37,83%</t>
         </is>
       </c>
     </row>
@@ -2547,107 +2547,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>99028</t>
+          <t>292691</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93270</t>
+          <t>265891</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>105365</t>
+          <t>317495</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>124078</t>
+          <t>248002</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>117086</t>
+          <t>227829</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>131572</t>
+          <t>267965</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>223107</t>
+          <t>540693</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>214280</t>
+          <t>510635</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>232565</t>
+          <t>573740</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>57,35%</t>
         </is>
       </c>
     </row>
@@ -2660,22 +2660,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>507633</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>507633</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>507633</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2695,22 +2695,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>661</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>228968</t>
+          <t>492847</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>228968</t>
+          <t>492847</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>228968</t>
+          <t>492847</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2730,22 +2730,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>405337</t>
+          <t>1000480</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>405337</t>
+          <t>1000480</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>405337</t>
+          <t>1000480</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2777,107 +2777,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22452</t>
+          <t>82474</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18854</t>
+          <t>67295</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26711</t>
+          <t>100117</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>491</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>107407</t>
+          <t>290657</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>99496</t>
+          <t>268138</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>116190</t>
+          <t>318148</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>597</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>129859</t>
+          <t>373131</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>120813</t>
+          <t>342390</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>139397</t>
+          <t>404252</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -2890,107 +2890,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23024</t>
+          <t>88032</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19434</t>
+          <t>71441</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27690</t>
+          <t>108403</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>204</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>45773</t>
+          <t>135439</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>40586</t>
+          <t>118042</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>52407</t>
+          <t>154163</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>297</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>68798</t>
+          <t>223471</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>61925</t>
+          <t>198770</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>75967</t>
+          <t>249216</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -3003,107 +3003,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>60560</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>46832</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13563</t>
+          <t>77245</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16702</t>
+          <t>89858</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13299</t>
+          <t>76262</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>20567</t>
+          <t>108215</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>194</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>27154</t>
+          <t>150418</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>23087</t>
+          <t>128861</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>32399</t>
+          <t>173660</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -3116,107 +3116,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>254554</t>
+          <t>775343</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>242710</t>
+          <t>721502</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>265606</t>
+          <t>829455</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
+          <t>37,88%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>35,25%</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>33,61%</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>598</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>213066</t>
+          <t>618098</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>201541</t>
+          <t>579421</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>224164</t>
+          <t>667370</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>467621</t>
+          <t>1393442</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>452137</t>
+          <t>1324164</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>483343</t>
+          <t>1462593</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -3229,107 +3229,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>411589</t>
+          <t>1040301</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>399775</t>
+          <t>989169</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>423998</t>
+          <t>1091349</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>413738</t>
+          <t>1058627</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>400780</t>
+          <t>1014501</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>426540</t>
+          <t>1098563</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>825328</t>
+          <t>2098927</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>808318</t>
+          <t>2031621</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>842479</t>
+          <t>2160326</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>50,96%</t>
         </is>
       </c>
     </row>
@@ -3342,22 +3342,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722072</t>
+          <t>2046710</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722072</t>
+          <t>2046710</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722072</t>
+          <t>2046710</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3377,22 +3377,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>796687</t>
+          <t>2192679</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>796687</t>
+          <t>2192679</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>796687</t>
+          <t>2192679</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3412,22 +3412,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8536</t>
+          <t>4870</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1518759</t>
+          <t>4239389</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1518759</t>
+          <t>4239389</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1518759</t>
+          <t>4239389</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Andalucia (tasa de respuesta: 99,51%)</t>
+          <t>Estado civil en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3698,107 +3698,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33606</t>
+          <t>7522</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24531</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44148</t>
+          <t>13041</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>152957</t>
+          <t>47004</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>137135</t>
+          <t>37380</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>168923</t>
+          <t>57004</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>186563</t>
+          <t>54526</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>167096</t>
+          <t>43159</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>204223</t>
+          <t>67995</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>31,05%</t>
         </is>
       </c>
     </row>
@@ -3811,107 +3811,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5879</t>
+          <t>568</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11112</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19687</t>
+          <t>3038</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11939</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41497</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>25566</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17382</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43938</t>
+          <t>7997</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -3924,107 +3924,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6797</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>912</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13485</t>
+          <t>14259</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14166</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8803</t>
+          <t>761</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23806</t>
+          <t>12604</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>20962</t>
+          <t>7510</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>13962</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32235</t>
+          <t>16279</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -4042,102 +4042,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48489</t>
+          <t>30729</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35313</t>
+          <t>20945</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63972</t>
+          <t>41234</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30440</t>
+          <t>24252</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22131</t>
+          <t>16539</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41835</t>
+          <t>34356</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>78929</t>
+          <t>54981</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>61731</t>
+          <t>42539</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>97163</t>
+          <t>68580</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -4150,107 +4150,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>131864</t>
+          <t>55270</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>115807</t>
+          <t>44966</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>145798</t>
+          <t>65793</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>180142</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>164164</t>
+          <t>34202</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>197262</t>
+          <t>52837</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>242</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>312007</t>
+          <t>98390</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>289579</t>
+          <t>84809</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>332849</t>
+          <t>114907</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>52,47%</t>
         </is>
       </c>
     </row>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>226636</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>226636</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>226636</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4298,22 +4298,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>397391</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>397391</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>397391</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4333,22 +4333,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>624027</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>624027</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>624027</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4380,107 +4380,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33228</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17624</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46450</t>
+          <t>8084</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87390</t>
+          <t>30119</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53381</t>
+          <t>23681</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>110479</t>
+          <t>37411</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>120618</t>
+          <t>34634</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>83763</t>
+          <t>27554</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>150570</t>
+          <t>42860</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -4493,107 +4493,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56533</t>
+          <t>15679</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29915</t>
+          <t>10714</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76639</t>
+          <t>20725</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77701</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42576</t>
+          <t>23504</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>99896</t>
+          <t>39960</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>134235</t>
+          <t>46676</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>93497</t>
+          <t>37088</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>166891</t>
+          <t>56787</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -4606,107 +4606,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40289</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21350</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56799</t>
+          <t>7894</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50301</t>
+          <t>11548</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29863</t>
+          <t>7568</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>65894</t>
+          <t>16622</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>90589</t>
+          <t>15945</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>59092</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>115174</t>
+          <t>21955</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -4719,107 +4719,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>508000</t>
+          <t>176950</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>279126</t>
+          <t>164267</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>629788</t>
+          <t>190446</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>427220</t>
+          <t>139857</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>270646</t>
+          <t>126938</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>561041</t>
+          <t>153279</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>704</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>935220</t>
+          <t>316808</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>638941</t>
+          <t>298233</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1119479</t>
+          <t>334343</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>46,97%</t>
         </is>
       </c>
     </row>
@@ -4832,107 +4832,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>769718</t>
+          <t>155721</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>620617</t>
+          <t>143453</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1043591</t>
+          <t>168804</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>322</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>739830</t>
+          <t>142068</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>596577</t>
+          <t>130051</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>992432</t>
+          <t>155574</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>675</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1509548</t>
+          <t>297790</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1266903</t>
+          <t>279795</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1932727</t>
+          <t>316897</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>44,52%</t>
         </is>
       </c>
     </row>
@@ -4945,22 +4945,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1407768</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1407768</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1407768</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4980,22 +4980,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1382442</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1382442</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1382442</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5015,22 +5015,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>2790210</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2790210</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>2790210</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5062,107 +5062,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10975</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17372</t>
+          <t>6256</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23619</t>
+          <t>8960</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17790</t>
+          <t>6051</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31410</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>34594</t>
+          <t>12548</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>26332</t>
+          <t>9078</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44965</t>
+          <t>17084</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -5175,107 +5175,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16604</t>
+          <t>9176</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10789</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26115</t>
+          <t>13956</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28549</t>
+          <t>19132</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21381</t>
+          <t>14088</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>36433</t>
+          <t>26545</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>45153</t>
+          <t>28307</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35114</t>
+          <t>21794</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>56994</t>
+          <t>36430</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -5288,107 +5288,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6763</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13182</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14808</t>
+          <t>6953</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>9711</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>21840</t>
+          <t>11459</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>21571</t>
+          <t>8531</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>14603</t>
+          <t>5494</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>28979</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -5401,107 +5401,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>158524</t>
+          <t>102367</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>138455</t>
+          <t>91533</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>183832</t>
+          <t>112448</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>155292</t>
+          <t>122335</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>137028</t>
+          <t>110968</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>174504</t>
+          <t>134289</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>616</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>313817</t>
+          <t>224702</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>284731</t>
+          <t>208536</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>342762</t>
+          <t>240025</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>47,36%</t>
         </is>
       </c>
     </row>
@@ -5514,107 +5514,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>264622</t>
+          <t>107902</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>239368</t>
+          <t>98520</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>287380</t>
+          <t>118815</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>323</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>218832</t>
+          <t>124807</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>199888</t>
+          <t>113967</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>237270</t>
+          <t>136483</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>645</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>483455</t>
+          <t>232710</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>454185</t>
+          <t>216687</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>514296</t>
+          <t>247867</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>48,91%</t>
         </is>
       </c>
     </row>
@@ -5627,22 +5627,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>457489</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>457489</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>457489</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5662,22 +5662,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>759</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>441100</t>
+          <t>282187</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>441100</t>
+          <t>282187</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>441100</t>
+          <t>282187</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5697,22 +5697,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>898589</t>
+          <t>506798</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>898589</t>
+          <t>506798</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>898589</t>
+          <t>506798</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5744,107 +5744,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>77810</t>
+          <t>15625</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50910</t>
+          <t>10539</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>97479</t>
+          <t>22135</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>263965</t>
+          <t>86083</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>189873</t>
+          <t>73952</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>306602</t>
+          <t>100588</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>269</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>341775</t>
+          <t>101708</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>275209</t>
+          <t>87931</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>391279</t>
+          <t>117776</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,19%</t>
         </is>
       </c>
     </row>
@@ -5857,107 +5857,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79017</t>
+          <t>25422</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>50025</t>
+          <t>18416</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>98947</t>
+          <t>32117</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125936</t>
+          <t>53167</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>91591</t>
+          <t>41944</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>151804</t>
+          <t>64162</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>183</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>204954</t>
+          <t>78589</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>163770</t>
+          <t>67415</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>240061</t>
+          <t>91749</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -5970,107 +5970,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>53848</t>
+          <t>10441</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>36024</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>70567</t>
+          <t>19098</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>79274</t>
+          <t>21544</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>57791</t>
+          <t>15718</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>97992</t>
+          <t>29555</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>133123</t>
+          <t>31985</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>104483</t>
+          <t>23803</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>159490</t>
+          <t>43235</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -6083,107 +6083,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>710</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>715013</t>
+          <t>310047</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>472030</t>
+          <t>290455</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>829368</t>
+          <t>331228</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>612952</t>
+          <t>286444</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>452471</t>
+          <t>265917</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>748351</t>
+          <t>306310</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1327966</t>
+          <t>596491</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1064537</t>
+          <t>568187</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1500306</t>
+          <t>623966</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>43,4%</t>
         </is>
       </c>
     </row>
@@ -6196,107 +6196,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1166205</t>
+          <t>318893</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1027469</t>
+          <t>299875</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1487704</t>
+          <t>339557</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>764</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1138805</t>
+          <t>309995</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1005163</t>
+          <t>290831</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1432108</t>
+          <t>331535</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2305009</t>
+          <t>628889</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2066879</t>
+          <t>600060</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2697319</t>
+          <t>656259</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>45,65%</t>
         </is>
       </c>
     </row>
@@ -6309,22 +6309,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2091893</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2091893</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2091893</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6344,22 +6344,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2220933</t>
+          <t>757233</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2220933</t>
+          <t>757233</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2220933</t>
+          <t>757233</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4312826</t>
+          <t>1437661</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4312826</t>
+          <t>1437661</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4312826</t>
+          <t>1437661</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9447,7 +9447,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Barcelona (tasa de respuesta: 99,83%)</t>
+          <t>Estado civil en País Vasco (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9632,107 +9632,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7522</t>
+          <t>5059</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13041</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47004</t>
+          <t>48372</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>43948</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57004</t>
+          <t>52781</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>347</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>54526</t>
+          <t>53430</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>43159</t>
+          <t>48290</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>67995</t>
+          <t>58906</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -9745,107 +9745,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7122</t>
+          <t>6215</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>7997</t>
+          <t>9398</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -9858,107 +9858,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14259</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12604</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>7510</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>16279</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -9971,107 +9971,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30729</t>
+          <t>16872</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20945</t>
+          <t>13691</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41234</t>
+          <t>20307</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24252</t>
+          <t>9438</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16539</t>
+          <t>7163</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34356</t>
+          <t>12061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>54981</t>
+          <t>26311</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42539</t>
+          <t>22221</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68580</t>
+          <t>30459</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -10084,107 +10084,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55270</t>
+          <t>56084</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44966</t>
+          <t>52309</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65793</t>
+          <t>59627</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,76%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>353</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43120</t>
+          <t>57478</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34202</t>
+          <t>52745</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>52837</t>
+          <t>61917</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>98390</t>
+          <t>113563</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>84809</t>
+          <t>107488</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>114907</t>
+          <t>120286</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>59,06%</t>
         </is>
       </c>
     </row>
@@ -10197,22 +10197,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82315</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10232,22 +10232,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>754</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121361</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10267,22 +10267,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203676</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10314,107 +10314,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>14072</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>11182</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30119</t>
+          <t>51068</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23681</t>
+          <t>45607</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37411</t>
+          <t>57251</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34634</t>
+          <t>65140</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27554</t>
+          <t>58415</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42860</t>
+          <t>72109</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -10427,107 +10427,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15679</t>
+          <t>14487</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10714</t>
+          <t>11583</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20725</t>
+          <t>17953</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30998</t>
+          <t>28285</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23504</t>
+          <t>24415</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39960</t>
+          <t>33064</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>46676</t>
+          <t>42772</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>37088</t>
+          <t>37936</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>56787</t>
+          <t>48621</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -10540,97 +10540,97 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7894</t>
+          <t>9334</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11548</t>
+          <t>10963</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7568</t>
+          <t>8327</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16622</t>
+          <t>14098</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>15945</t>
+          <t>17702</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>11370</t>
+          <t>14558</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21955</t>
+          <t>21712</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -10653,107 +10653,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>950</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>176950</t>
+          <t>171615</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>164267</t>
+          <t>162498</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>190446</t>
+          <t>180613</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>678</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>139857</t>
+          <t>123860</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>126938</t>
+          <t>116547</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>153279</t>
+          <t>132327</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>316808</t>
+          <t>295475</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>298233</t>
+          <t>283360</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>334343</t>
+          <t>308667</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -10766,107 +10766,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>155721</t>
+          <t>256477</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143453</t>
+          <t>247179</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168804</t>
+          <t>266202</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>142068</t>
+          <t>232182</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>130051</t>
+          <t>223271</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>155574</t>
+          <t>241654</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>297790</t>
+          <t>488658</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>279795</t>
+          <t>474752</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>316897</t>
+          <t>501396</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>55,11%</t>
         </is>
       </c>
     </row>
@@ -10879,22 +10879,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2649</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>463389</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10914,22 +10914,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446358</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -10949,22 +10949,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5161</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>909746</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10996,107 +10996,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6256</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7968</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5937</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10635</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11289</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>14568</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
           <t>2,79%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>8960</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6051</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>13514</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>3,18%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>12548</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>9078</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>17084</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -11109,107 +11109,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9176</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13956</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19132</t>
+          <t>13497</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14088</t>
+          <t>10591</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26545</t>
+          <t>17126</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>107</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>28307</t>
+          <t>19360</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>21794</t>
+          <t>16061</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>36430</t>
+          <t>23850</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -11222,72 +11222,72 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6953</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>11459</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -11297,32 +11297,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>8531</t>
+          <t>5745</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>12879</t>
+          <t>8786</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -11335,107 +11335,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102367</t>
+          <t>66067</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91533</t>
+          <t>60210</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>112448</t>
+          <t>72588</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>122335</t>
+          <t>79768</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>110968</t>
+          <t>72867</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>134289</t>
+          <t>86660</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>224702</t>
+          <t>145835</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>208536</t>
+          <t>136209</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>240025</t>
+          <t>153830</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -11448,107 +11448,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>107902</t>
+          <t>99028</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>98520</t>
+          <t>93270</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>118815</t>
+          <t>105365</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>124807</t>
+          <t>124078</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>113967</t>
+          <t>117086</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>136483</t>
+          <t>131572</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>232710</t>
+          <t>223107</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>216687</t>
+          <t>214280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>247867</t>
+          <t>232565</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>57,38%</t>
         </is>
       </c>
     </row>
@@ -11561,22 +11561,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11596,22 +11596,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>282187</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>282187</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>282187</t>
+          <t>228968</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11631,22 +11631,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>506798</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>506798</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>506798</t>
+          <t>405337</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11678,107 +11678,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15625</t>
+          <t>22452</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10539</t>
+          <t>18854</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22135</t>
+          <t>26711</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>652</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>86083</t>
+          <t>107407</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73952</t>
+          <t>99496</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>100588</t>
+          <t>116190</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>793</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>101708</t>
+          <t>129859</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>87931</t>
+          <t>120813</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>117776</t>
+          <t>139397</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -11791,107 +11791,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25422</t>
+          <t>23024</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18416</t>
+          <t>19434</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>32117</t>
+          <t>27690</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>53167</t>
+          <t>45773</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>41944</t>
+          <t>40586</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>64162</t>
+          <t>52407</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>397</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>78589</t>
+          <t>68798</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>67415</t>
+          <t>61925</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>91749</t>
+          <t>75967</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -11904,107 +11904,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10441</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>7999</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19098</t>
+          <t>13563</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21544</t>
+          <t>16702</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15718</t>
+          <t>13299</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29555</t>
+          <t>20567</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>31985</t>
+          <t>27154</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>23803</t>
+          <t>23087</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>43235</t>
+          <t>32399</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -12017,107 +12017,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>310047</t>
+          <t>254554</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>290455</t>
+          <t>242710</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>331228</t>
+          <t>265606</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>286444</t>
+          <t>213066</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>265917</t>
+          <t>201541</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>306310</t>
+          <t>224164</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>596491</t>
+          <t>467621</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>568187</t>
+          <t>452137</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>623966</t>
+          <t>483343</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>31,82%</t>
         </is>
       </c>
     </row>
@@ -12130,107 +12130,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>318893</t>
+          <t>411589</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>299875</t>
+          <t>399775</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>339557</t>
+          <t>423998</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>309995</t>
+          <t>413738</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>290831</t>
+          <t>400780</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>331535</t>
+          <t>426540</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>628889</t>
+          <t>825328</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>600060</t>
+          <t>808318</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>656259</t>
+          <t>842479</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>55,47%</t>
         </is>
       </c>
     </row>
@@ -12243,22 +12243,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>722072</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12278,22 +12278,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>757233</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>757233</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>757233</t>
+          <t>796687</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12313,22 +12313,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1437661</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1437661</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1437661</t>
+          <t>1518759</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
